--- a/BalanceSheet/XYL_bal.xlsx
+++ b/BalanceSheet/XYL_bal.xlsx
@@ -498,19 +498,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>43000000.0</v>
+        <v>558000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>15000000.0</v>
+        <v>582000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-9000000.0</v>
+        <v>595000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-54000000.0</v>
+        <v>573000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>49000000.0</v>
+        <v>539000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>580000000.0</v>
@@ -1766,19 +1766,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>52000000.0</v>
+        <v>569000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-5000000.0</v>
+        <v>495000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-18000000.0</v>
+        <v>498000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-68000000.0</v>
+        <v>506000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>59000000.0</v>
+        <v>597000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>521000000.0</v>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-31000000.0</v>
+        <v>-14000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>283000000.0</v>
@@ -3328,7 +3328,7 @@
         <v>315000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-77000000.0</v>
+        <v>84000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>310000000.0</v>
